--- a/covid-ed-ig/ValueSet-covid-19-lab-pao2fio2.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-lab-pao2fio2.xlsx
@@ -76,7 +76,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>001</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-covid-19-lab-pao2fio2.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-lab-pao2fio2.xlsx
@@ -76,7 +76,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>001</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-covid-19-lab-pao2fio2.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-lab-pao2fio2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -37,13 +37,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>COVID19LabPaO2FiO2Ratio</t>
+    <t>COVID19LabPao2fio2</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>COVID-19 Laboratory Value Set for PaO2FiO2 Ratio</t>
+    <t>COVID-19 Laboratory Value Set for Pao2fio2</t>
   </si>
   <si>
     <t>Status</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-02-26T20:00:00+00:00</t>
+    <t>2022-01-04T20:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,7 +97,13 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>50984-4</t>
+    <t>2703-7</t>
+  </si>
+  <si>
+    <t>19255-9</t>
+  </si>
+  <si>
+    <t>19214-6</t>
   </si>
   <si>
     <t/>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,16 +432,28 @@
       <c r="A3" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
         <v>30</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -445,7 +463,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -453,33 +471,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -487,10 +505,48 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
